--- a/i18n.xlsx
+++ b/i18n.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27426"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11109"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yincheng/bytedance/my-code/i18n-excel-to-json/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/liyincheng/bytedance/my-code/i18n-excel-to-json/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DC3AABB-B164-0844-AC4F-AB48ED69DF65}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2820" yWindow="5420" windowWidth="26240" windowHeight="12580" tabRatio="500"/>
+    <workbookView xWindow="2820" yWindow="5420" windowWidth="26240" windowHeight="12580" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="150000" concurrentCalc="0"/>
+  <calcPr calcId="150000"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -65,7 +66,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -78,11 +79,13 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -119,6 +122,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -386,11 +392,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D30"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:D28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -447,7 +453,7 @@
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
-      <c r="D4" s="3"/>
+      <c r="D4" s="1"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="1"/>
@@ -482,25 +488,25 @@
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
+      <c r="C10" s="2"/>
       <c r="D10" s="1"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
+      <c r="C11" s="2"/>
       <c r="D11" s="1"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
-      <c r="C12" s="2"/>
+      <c r="C12" s="1"/>
       <c r="D12" s="1"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
-      <c r="C13" s="2"/>
+      <c r="C13" s="1"/>
       <c r="D13" s="1"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
@@ -593,18 +599,6 @@
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A29" s="1"/>
-      <c r="B29" s="1"/>
-      <c r="C29" s="1"/>
-      <c r="D29" s="1"/>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A30" s="1"/>
-      <c r="B30" s="1"/>
-      <c r="C30" s="1"/>
-      <c r="D30" s="1"/>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
